--- a/socialstyrelsen/statistik-covid19-avlidna_2021-01-06.xlsx
+++ b/socialstyrelsen/statistik-covid19-avlidna_2021-01-06.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\S\Delad\021-Statistik Covid\Excelfiler\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3287,7 +3287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="70">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -4062,6 +4062,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC1C1C1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC1C1C1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC1C1C1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC1C1C1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -4113,7 +4128,7 @@
     <xf numFmtId="167" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="349">
+  <cellXfs count="350">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4881,6 +4896,42 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4899,12 +4950,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4913,36 +4958,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5078,6 +5093,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="34">
@@ -20943,7 +20961,7 @@
     <row r="19" spans="1:11">
       <c r="A19" s="146"/>
       <c r="B19" s="138" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C19" s="2">
         <v>87</v>
@@ -20969,7 +20987,7 @@
     <row r="20" spans="1:11">
       <c r="A20" s="146"/>
       <c r="B20" s="138" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C20" s="2">
         <v>85</v>
@@ -20995,7 +21013,7 @@
     <row r="21" spans="1:11">
       <c r="A21" s="146"/>
       <c r="B21" s="138" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C21" s="2">
         <v>81</v>
@@ -21021,7 +21039,7 @@
     <row r="22" spans="1:11">
       <c r="A22" s="146"/>
       <c r="B22" s="138" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C22" s="2">
         <v>77</v>
@@ -21073,7 +21091,7 @@
     <row r="24" spans="1:11">
       <c r="A24" s="146"/>
       <c r="B24" s="138" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C24" s="2">
         <v>68</v>
@@ -21099,7 +21117,7 @@
     <row r="25" spans="1:11">
       <c r="A25" s="146"/>
       <c r="B25" s="138" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C25" s="2">
         <v>61</v>
@@ -21125,7 +21143,7 @@
     <row r="26" spans="1:11">
       <c r="A26" s="146"/>
       <c r="B26" s="138" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C26" s="2">
         <v>57</v>
@@ -21229,7 +21247,7 @@
     <row r="30" spans="1:11">
       <c r="A30" s="146"/>
       <c r="B30" s="138" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C30" s="2">
         <v>24</v>
@@ -21281,7 +21299,7 @@
     <row r="32" spans="1:11">
       <c r="A32" s="146"/>
       <c r="B32" s="138" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C32" s="2">
         <v>21</v>
@@ -21307,7 +21325,7 @@
     <row r="33" spans="1:11">
       <c r="A33" s="146"/>
       <c r="B33" s="138" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C33" s="2">
         <v>20</v>
@@ -21543,7 +21561,7 @@
     <row r="42" spans="1:11">
       <c r="A42" s="146"/>
       <c r="B42" s="138" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C42" s="2">
         <v>10</v>
@@ -21569,7 +21587,7 @@
     <row r="43" spans="1:11">
       <c r="A43" s="146"/>
       <c r="B43" s="138" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C43" s="2">
         <v>7</v>
@@ -21753,7 +21771,7 @@
     <row r="50" spans="1:11">
       <c r="A50" s="146"/>
       <c r="B50" s="138" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C50" s="2">
         <v>17</v>
@@ -21779,7 +21797,7 @@
     <row r="51" spans="1:11">
       <c r="A51" s="146"/>
       <c r="B51" s="138" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C51" s="2">
         <v>16</v>
@@ -21805,7 +21823,7 @@
     <row r="52" spans="1:11">
       <c r="A52" s="146"/>
       <c r="B52" s="138" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C52" s="2">
         <v>15</v>
@@ -21963,7 +21981,7 @@
     <row r="58" spans="1:11">
       <c r="A58" s="146"/>
       <c r="B58" s="138" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C58" s="2">
         <v>31</v>
@@ -21989,7 +22007,7 @@
     <row r="59" spans="1:11">
       <c r="A59" s="146"/>
       <c r="B59" s="138" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C59" s="2">
         <v>26</v>
@@ -22067,7 +22085,7 @@
     <row r="62" spans="1:11">
       <c r="A62" s="146"/>
       <c r="B62" s="138" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C62" s="2">
         <v>9</v>
@@ -22093,7 +22111,7 @@
     <row r="63" spans="1:11">
       <c r="A63" s="146"/>
       <c r="B63" s="138" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C63" s="2">
         <v>8</v>
@@ -22139,7 +22157,7 @@
     <row r="65" spans="1:11">
       <c r="A65" s="146"/>
       <c r="B65" s="138" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>572</v>
@@ -22165,7 +22183,7 @@
     <row r="66" spans="1:11">
       <c r="A66" s="146"/>
       <c r="B66" s="138" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>572</v>
@@ -22191,7 +22209,7 @@
     <row r="67" spans="1:11">
       <c r="A67" s="146"/>
       <c r="B67" s="138" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>572</v>
@@ -22217,7 +22235,7 @@
     <row r="68" spans="1:11" ht="14.25" thickBot="1">
       <c r="A68" s="146"/>
       <c r="B68" s="138" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>572</v>
@@ -22323,7 +22341,7 @@
     <row r="72" spans="1:11">
       <c r="A72" s="146"/>
       <c r="B72" s="138" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C72" s="2">
         <v>39</v>
@@ -22349,7 +22367,7 @@
     <row r="73" spans="1:11">
       <c r="A73" s="146"/>
       <c r="B73" s="138" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C73" s="2">
         <v>32</v>
@@ -22375,7 +22393,7 @@
     <row r="74" spans="1:11">
       <c r="A74" s="146"/>
       <c r="B74" s="138" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C74" s="2">
         <v>23</v>
@@ -22401,7 +22419,7 @@
     <row r="75" spans="1:11">
       <c r="A75" s="146"/>
       <c r="B75" s="138" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C75" s="2">
         <v>15</v>
@@ -22427,7 +22445,7 @@
     <row r="76" spans="1:11">
       <c r="A76" s="146"/>
       <c r="B76" s="138" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C76" s="2">
         <v>11</v>
@@ -22453,7 +22471,7 @@
     <row r="77" spans="1:11">
       <c r="A77" s="146"/>
       <c r="B77" s="138" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C77" s="2">
         <v>10</v>
@@ -22479,7 +22497,7 @@
     <row r="78" spans="1:11">
       <c r="A78" s="146"/>
       <c r="B78" s="138" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C78" s="2">
         <v>9</v>
@@ -22505,7 +22523,7 @@
     <row r="79" spans="1:11">
       <c r="A79" s="146"/>
       <c r="B79" s="138" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C79" s="2">
         <v>7</v>
@@ -22583,7 +22601,7 @@
     <row r="82" spans="1:11" ht="14.25" thickBot="1">
       <c r="A82" s="146"/>
       <c r="B82" s="138" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>572</v>
@@ -22663,7 +22681,7 @@
     <row r="85" spans="1:11">
       <c r="A85" s="146"/>
       <c r="B85" s="138" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C85" s="2">
         <v>30</v>
@@ -22689,7 +22707,7 @@
     <row r="86" spans="1:11">
       <c r="A86" s="146"/>
       <c r="B86" s="138" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C86" s="2">
         <v>24</v>
@@ -22873,7 +22891,7 @@
     <row r="93" spans="1:11">
       <c r="A93" s="146"/>
       <c r="B93" s="138" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C93" s="2">
         <v>21</v>
@@ -22899,7 +22917,7 @@
     <row r="94" spans="1:11">
       <c r="A94" s="146"/>
       <c r="B94" s="138" t="s">
-        <v>361</v>
+        <v>135</v>
       </c>
       <c r="C94" s="2">
         <v>20</v>
@@ -22925,7 +22943,7 @@
     <row r="95" spans="1:11">
       <c r="A95" s="146"/>
       <c r="B95" s="138" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C95" s="2">
         <v>19</v>
@@ -22951,7 +22969,7 @@
     <row r="96" spans="1:11">
       <c r="A96" s="146"/>
       <c r="B96" s="138" t="s">
-        <v>135</v>
+        <v>360</v>
       </c>
       <c r="C96" s="2">
         <v>16</v>
@@ -22977,7 +22995,7 @@
     <row r="97" spans="1:11">
       <c r="A97" s="146"/>
       <c r="B97" s="138" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C97" s="2">
         <v>12</v>
@@ -23003,7 +23021,7 @@
     <row r="98" spans="1:11">
       <c r="A98" s="146"/>
       <c r="B98" s="138" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C98" s="2">
         <v>9</v>
@@ -23029,7 +23047,7 @@
     <row r="99" spans="1:11">
       <c r="A99" s="146"/>
       <c r="B99" s="138" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C99" s="2">
         <v>6</v>
@@ -23081,7 +23099,7 @@
     <row r="101" spans="1:11">
       <c r="A101" s="146"/>
       <c r="B101" s="138" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C101" s="2">
         <v>5</v>
@@ -23107,7 +23125,7 @@
     <row r="102" spans="1:11">
       <c r="A102" s="146"/>
       <c r="B102" s="138" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>572</v>
@@ -23133,7 +23151,7 @@
     <row r="103" spans="1:11">
       <c r="A103" s="146"/>
       <c r="B103" s="138" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>572</v>
@@ -23187,7 +23205,7 @@
         <v>269</v>
       </c>
       <c r="B105" s="145" t="s">
-        <v>190</v>
+        <v>285</v>
       </c>
       <c r="C105" s="150">
         <v>21</v>
@@ -23213,7 +23231,7 @@
     <row r="106" spans="1:11" ht="14.25" thickBot="1">
       <c r="A106" s="146"/>
       <c r="B106" s="138" t="s">
-        <v>285</v>
+        <v>190</v>
       </c>
       <c r="C106" s="2">
         <v>21</v>
@@ -23293,7 +23311,7 @@
     <row r="109" spans="1:11">
       <c r="A109" s="146"/>
       <c r="B109" s="138" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C109" s="2">
         <v>9</v>
@@ -23319,7 +23337,7 @@
     <row r="110" spans="1:11">
       <c r="A110" s="146"/>
       <c r="B110" s="138" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C110" s="2">
         <v>5</v>
@@ -23477,7 +23495,7 @@
     <row r="116" spans="1:11">
       <c r="A116" s="146"/>
       <c r="B116" s="138" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C116" s="2">
         <v>42</v>
@@ -23529,7 +23547,7 @@
     <row r="118" spans="1:11">
       <c r="A118" s="146"/>
       <c r="B118" s="138" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C118" s="2">
         <v>28</v>
@@ -23607,7 +23625,7 @@
     <row r="121" spans="1:11">
       <c r="A121" s="146"/>
       <c r="B121" s="138" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C121" s="2">
         <v>19</v>
@@ -23633,7 +23651,7 @@
     <row r="122" spans="1:11">
       <c r="A122" s="146"/>
       <c r="B122" s="138" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C122" s="2">
         <v>17</v>
@@ -23659,7 +23677,7 @@
     <row r="123" spans="1:11">
       <c r="A123" s="146"/>
       <c r="B123" s="138" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C123" s="2">
         <v>16</v>
@@ -23685,7 +23703,7 @@
     <row r="124" spans="1:11">
       <c r="A124" s="146"/>
       <c r="B124" s="138" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C124" s="2">
         <v>13</v>
@@ -23711,7 +23729,7 @@
     <row r="125" spans="1:11">
       <c r="A125" s="146"/>
       <c r="B125" s="138" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C125" s="2">
         <v>11</v>
@@ -23737,7 +23755,7 @@
     <row r="126" spans="1:11">
       <c r="A126" s="146"/>
       <c r="B126" s="138" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C126" s="2">
         <v>10</v>
@@ -23763,7 +23781,7 @@
     <row r="127" spans="1:11">
       <c r="A127" s="146"/>
       <c r="B127" s="138" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C127" s="2">
         <v>9</v>
@@ -23789,7 +23807,7 @@
     <row r="128" spans="1:11">
       <c r="A128" s="146"/>
       <c r="B128" s="138" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="C128" s="2">
         <v>9</v>
@@ -23815,7 +23833,7 @@
     <row r="129" spans="1:11">
       <c r="A129" s="146"/>
       <c r="B129" s="138" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C129" s="2">
         <v>9</v>
@@ -23841,7 +23859,7 @@
     <row r="130" spans="1:11">
       <c r="A130" s="146"/>
       <c r="B130" s="138" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C130" s="2">
         <v>8</v>
@@ -23867,7 +23885,7 @@
     <row r="131" spans="1:11">
       <c r="A131" s="146"/>
       <c r="B131" s="138" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C131" s="2">
         <v>7</v>
@@ -23893,7 +23911,7 @@
     <row r="132" spans="1:11">
       <c r="A132" s="146"/>
       <c r="B132" s="138" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C132" s="2">
         <v>7</v>
@@ -23919,7 +23937,7 @@
     <row r="133" spans="1:11">
       <c r="A133" s="146"/>
       <c r="B133" s="138" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C133" s="2">
         <v>6</v>
@@ -23945,7 +23963,7 @@
     <row r="134" spans="1:11">
       <c r="A134" s="146"/>
       <c r="B134" s="138" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C134" s="2">
         <v>5</v>
@@ -23971,7 +23989,7 @@
     <row r="135" spans="1:11">
       <c r="A135" s="146"/>
       <c r="B135" s="138" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C135" s="2">
         <v>5</v>
@@ -23997,7 +24015,7 @@
     <row r="136" spans="1:11">
       <c r="A136" s="146"/>
       <c r="B136" s="138" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C136" s="2">
         <v>5</v>
@@ -24023,7 +24041,7 @@
     <row r="137" spans="1:11">
       <c r="A137" s="146"/>
       <c r="B137" s="138" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C137" s="2">
         <v>4</v>
@@ -24049,7 +24067,7 @@
     <row r="138" spans="1:11">
       <c r="A138" s="146"/>
       <c r="B138" s="138" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C138" s="2">
         <v>4</v>
@@ -24075,7 +24093,7 @@
     <row r="139" spans="1:11">
       <c r="A139" s="146"/>
       <c r="B139" s="138" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C139" s="2">
         <v>4</v>
@@ -24101,7 +24119,7 @@
     <row r="140" spans="1:11">
       <c r="A140" s="146"/>
       <c r="B140" s="138" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>572</v>
@@ -24127,7 +24145,7 @@
     <row r="141" spans="1:11">
       <c r="A141" s="146"/>
       <c r="B141" s="138" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>572</v>
@@ -24153,7 +24171,7 @@
     <row r="142" spans="1:11">
       <c r="A142" s="146"/>
       <c r="B142" s="138" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>572</v>
@@ -24179,7 +24197,7 @@
     <row r="143" spans="1:11">
       <c r="A143" s="146"/>
       <c r="B143" s="138" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>572</v>
@@ -24205,7 +24223,7 @@
     <row r="144" spans="1:11">
       <c r="A144" s="146"/>
       <c r="B144" s="138" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>572</v>
@@ -24231,7 +24249,7 @@
     <row r="145" spans="1:11">
       <c r="A145" s="146"/>
       <c r="B145" s="138" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>572</v>
@@ -24257,7 +24275,7 @@
     <row r="146" spans="1:11" ht="14.25" thickBot="1">
       <c r="A146" s="146"/>
       <c r="B146" s="138" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>572</v>
@@ -24311,7 +24329,7 @@
     <row r="148" spans="1:11">
       <c r="A148" s="146"/>
       <c r="B148" s="138" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C148" s="2">
         <v>38</v>
@@ -24337,7 +24355,7 @@
     <row r="149" spans="1:11">
       <c r="A149" s="146"/>
       <c r="B149" s="138" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C149" s="2">
         <v>35</v>
@@ -24363,7 +24381,7 @@
     <row r="150" spans="1:11">
       <c r="A150" s="146"/>
       <c r="B150" s="138" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C150" s="2">
         <v>26</v>
@@ -24389,7 +24407,7 @@
     <row r="151" spans="1:11">
       <c r="A151" s="146"/>
       <c r="B151" s="138" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C151" s="2">
         <v>23</v>
@@ -24495,7 +24513,7 @@
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="146"/>
-      <c r="B155" s="138" t="s">
+      <c r="B155" s="349" t="s">
         <v>415</v>
       </c>
       <c r="C155" s="2">
@@ -24521,7 +24539,7 @@
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="146"/>
-      <c r="B156" s="138" t="s">
+      <c r="B156" s="349" t="s">
         <v>416</v>
       </c>
       <c r="C156" s="2">
@@ -24547,7 +24565,7 @@
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="146"/>
-      <c r="B157" s="138" t="s">
+      <c r="B157" s="349" t="s">
         <v>417</v>
       </c>
       <c r="C157" s="2">
@@ -24573,8 +24591,8 @@
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="146"/>
-      <c r="B158" s="138" t="s">
-        <v>418</v>
+      <c r="B158" s="349" t="s">
+        <v>420</v>
       </c>
       <c r="C158" s="2">
         <v>54</v>
@@ -24599,8 +24617,8 @@
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="146"/>
-      <c r="B159" s="138" t="s">
-        <v>419</v>
+      <c r="B159" s="349" t="s">
+        <v>418</v>
       </c>
       <c r="C159" s="2">
         <v>50</v>
@@ -24625,8 +24643,8 @@
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="146"/>
-      <c r="B160" s="138" t="s">
-        <v>420</v>
+      <c r="B160" s="349" t="s">
+        <v>421</v>
       </c>
       <c r="C160" s="2">
         <v>44</v>
@@ -24651,8 +24669,8 @@
     </row>
     <row r="161" spans="1:11">
       <c r="A161" s="146"/>
-      <c r="B161" s="138" t="s">
-        <v>421</v>
+      <c r="B161" s="349" t="s">
+        <v>419</v>
       </c>
       <c r="C161" s="2">
         <v>41</v>
@@ -24677,7 +24695,7 @@
     </row>
     <row r="162" spans="1:11">
       <c r="A162" s="146"/>
-      <c r="B162" s="138" t="s">
+      <c r="B162" s="349" t="s">
         <v>422</v>
       </c>
       <c r="C162" s="2">
@@ -24703,8 +24721,8 @@
     </row>
     <row r="163" spans="1:11">
       <c r="A163" s="146"/>
-      <c r="B163" s="138" t="s">
-        <v>423</v>
+      <c r="B163" s="349" t="s">
+        <v>430</v>
       </c>
       <c r="C163" s="2">
         <v>25</v>
@@ -24729,8 +24747,8 @@
     </row>
     <row r="164" spans="1:11">
       <c r="A164" s="146"/>
-      <c r="B164" s="138" t="s">
-        <v>424</v>
+      <c r="B164" s="349" t="s">
+        <v>423</v>
       </c>
       <c r="C164" s="2">
         <v>23</v>
@@ -24755,8 +24773,8 @@
     </row>
     <row r="165" spans="1:11">
       <c r="A165" s="146"/>
-      <c r="B165" s="138" t="s">
-        <v>425</v>
+      <c r="B165" s="349" t="s">
+        <v>429</v>
       </c>
       <c r="C165" s="2">
         <v>22</v>
@@ -24781,8 +24799,8 @@
     </row>
     <row r="166" spans="1:11">
       <c r="A166" s="146"/>
-      <c r="B166" s="138" t="s">
-        <v>426</v>
+      <c r="B166" s="349" t="s">
+        <v>428</v>
       </c>
       <c r="C166" s="2">
         <v>20</v>
@@ -24807,8 +24825,8 @@
     </row>
     <row r="167" spans="1:11">
       <c r="A167" s="146"/>
-      <c r="B167" s="138" t="s">
-        <v>427</v>
+      <c r="B167" s="349" t="s">
+        <v>425</v>
       </c>
       <c r="C167" s="2">
         <v>20</v>
@@ -24833,8 +24851,8 @@
     </row>
     <row r="168" spans="1:11">
       <c r="A168" s="146"/>
-      <c r="B168" s="138" t="s">
-        <v>428</v>
+      <c r="B168" s="349" t="s">
+        <v>424</v>
       </c>
       <c r="C168" s="2">
         <v>20</v>
@@ -24859,8 +24877,8 @@
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="146"/>
-      <c r="B169" s="138" t="s">
-        <v>429</v>
+      <c r="B169" s="349" t="s">
+        <v>426</v>
       </c>
       <c r="C169" s="2">
         <v>19</v>
@@ -24885,8 +24903,8 @@
     </row>
     <row r="170" spans="1:11">
       <c r="A170" s="146"/>
-      <c r="B170" s="138" t="s">
-        <v>430</v>
+      <c r="B170" s="349" t="s">
+        <v>433</v>
       </c>
       <c r="C170" s="2">
         <v>19</v>
@@ -24911,8 +24929,8 @@
     </row>
     <row r="171" spans="1:11">
       <c r="A171" s="146"/>
-      <c r="B171" s="138" t="s">
-        <v>431</v>
+      <c r="B171" s="349" t="s">
+        <v>427</v>
       </c>
       <c r="C171" s="2">
         <v>18</v>
@@ -24937,8 +24955,8 @@
     </row>
     <row r="172" spans="1:11">
       <c r="A172" s="146"/>
-      <c r="B172" s="138" t="s">
-        <v>432</v>
+      <c r="B172" s="349" t="s">
+        <v>431</v>
       </c>
       <c r="C172" s="2">
         <v>15</v>
@@ -24963,8 +24981,8 @@
     </row>
     <row r="173" spans="1:11">
       <c r="A173" s="146"/>
-      <c r="B173" s="138" t="s">
-        <v>433</v>
+      <c r="B173" s="349" t="s">
+        <v>445</v>
       </c>
       <c r="C173" s="2">
         <v>13</v>
@@ -24989,8 +25007,8 @@
     </row>
     <row r="174" spans="1:11">
       <c r="A174" s="146"/>
-      <c r="B174" s="138" t="s">
-        <v>434</v>
+      <c r="B174" s="349" t="s">
+        <v>432</v>
       </c>
       <c r="C174" s="2">
         <v>12</v>
@@ -25015,7 +25033,7 @@
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="146"/>
-      <c r="B175" s="138" t="s">
+      <c r="B175" s="349" t="s">
         <v>435</v>
       </c>
       <c r="C175" s="2">
@@ -25041,8 +25059,8 @@
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="146"/>
-      <c r="B176" s="138" t="s">
-        <v>436</v>
+      <c r="B176" s="349" t="s">
+        <v>434</v>
       </c>
       <c r="C176" s="2">
         <v>10</v>
@@ -25067,8 +25085,8 @@
     </row>
     <row r="177" spans="1:11">
       <c r="A177" s="146"/>
-      <c r="B177" s="138" t="s">
-        <v>437</v>
+      <c r="B177" s="349" t="s">
+        <v>439</v>
       </c>
       <c r="C177" s="2">
         <v>9</v>
@@ -25093,8 +25111,8 @@
     </row>
     <row r="178" spans="1:11">
       <c r="A178" s="146"/>
-      <c r="B178" s="138" t="s">
-        <v>438</v>
+      <c r="B178" s="349" t="s">
+        <v>443</v>
       </c>
       <c r="C178" s="2">
         <v>8</v>
@@ -25119,8 +25137,8 @@
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="146"/>
-      <c r="B179" s="138" t="s">
-        <v>439</v>
+      <c r="B179" s="349" t="s">
+        <v>444</v>
       </c>
       <c r="C179" s="2">
         <v>7</v>
@@ -25145,8 +25163,8 @@
     </row>
     <row r="180" spans="1:11">
       <c r="A180" s="146"/>
-      <c r="B180" s="138" t="s">
-        <v>440</v>
+      <c r="B180" s="349" t="s">
+        <v>436</v>
       </c>
       <c r="C180" s="2">
         <v>7</v>
@@ -25171,8 +25189,8 @@
     </row>
     <row r="181" spans="1:11">
       <c r="A181" s="146"/>
-      <c r="B181" s="138" t="s">
-        <v>441</v>
+      <c r="B181" s="349" t="s">
+        <v>442</v>
       </c>
       <c r="C181" s="2">
         <v>7</v>
@@ -25197,8 +25215,8 @@
     </row>
     <row r="182" spans="1:11">
       <c r="A182" s="146"/>
-      <c r="B182" s="138" t="s">
-        <v>442</v>
+      <c r="B182" s="349" t="s">
+        <v>440</v>
       </c>
       <c r="C182" s="2">
         <v>7</v>
@@ -25223,8 +25241,8 @@
     </row>
     <row r="183" spans="1:11">
       <c r="A183" s="146"/>
-      <c r="B183" s="138" t="s">
-        <v>443</v>
+      <c r="B183" s="349" t="s">
+        <v>437</v>
       </c>
       <c r="C183" s="2">
         <v>7</v>
@@ -25249,8 +25267,8 @@
     </row>
     <row r="184" spans="1:11">
       <c r="A184" s="146"/>
-      <c r="B184" s="138" t="s">
-        <v>444</v>
+      <c r="B184" s="349" t="s">
+        <v>438</v>
       </c>
       <c r="C184" s="2">
         <v>7</v>
@@ -25275,8 +25293,8 @@
     </row>
     <row r="185" spans="1:11">
       <c r="A185" s="146"/>
-      <c r="B185" s="138" t="s">
-        <v>445</v>
+      <c r="B185" s="349" t="s">
+        <v>441</v>
       </c>
       <c r="C185" s="2">
         <v>6</v>
@@ -25301,8 +25319,8 @@
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="146"/>
-      <c r="B186" s="138" t="s">
-        <v>446</v>
+      <c r="B186" s="349" t="s">
+        <v>452</v>
       </c>
       <c r="C186" s="2">
         <v>6</v>
@@ -25327,8 +25345,8 @@
     </row>
     <row r="187" spans="1:11">
       <c r="A187" s="146"/>
-      <c r="B187" s="138" t="s">
-        <v>447</v>
+      <c r="B187" s="349" t="s">
+        <v>453</v>
       </c>
       <c r="C187" s="2">
         <v>6</v>
@@ -25353,8 +25371,8 @@
     </row>
     <row r="188" spans="1:11">
       <c r="A188" s="146"/>
-      <c r="B188" s="138" t="s">
-        <v>448</v>
+      <c r="B188" s="349" t="s">
+        <v>451</v>
       </c>
       <c r="C188" s="2">
         <v>5</v>
@@ -25379,8 +25397,8 @@
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="146"/>
-      <c r="B189" s="138" t="s">
-        <v>449</v>
+      <c r="B189" s="349" t="s">
+        <v>455</v>
       </c>
       <c r="C189" s="2">
         <v>5</v>
@@ -25405,8 +25423,8 @@
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="146"/>
-      <c r="B190" s="138" t="s">
-        <v>450</v>
+      <c r="B190" s="349" t="s">
+        <v>457</v>
       </c>
       <c r="C190" s="2">
         <v>5</v>
@@ -25431,8 +25449,8 @@
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="146"/>
-      <c r="B191" s="138" t="s">
-        <v>451</v>
+      <c r="B191" s="349" t="s">
+        <v>454</v>
       </c>
       <c r="C191" s="2">
         <v>4</v>
@@ -25457,8 +25475,8 @@
     </row>
     <row r="192" spans="1:11">
       <c r="A192" s="146"/>
-      <c r="B192" s="138" t="s">
-        <v>452</v>
+      <c r="B192" s="349" t="s">
+        <v>446</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>572</v>
@@ -25483,8 +25501,8 @@
     </row>
     <row r="193" spans="1:11">
       <c r="A193" s="146"/>
-      <c r="B193" s="138" t="s">
-        <v>453</v>
+      <c r="B193" s="349" t="s">
+        <v>447</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>572</v>
@@ -25509,8 +25527,8 @@
     </row>
     <row r="194" spans="1:11">
       <c r="A194" s="146"/>
-      <c r="B194" s="138" t="s">
-        <v>454</v>
+      <c r="B194" s="349" t="s">
+        <v>448</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>572</v>
@@ -25535,8 +25553,8 @@
     </row>
     <row r="195" spans="1:11">
       <c r="A195" s="146"/>
-      <c r="B195" s="138" t="s">
-        <v>455</v>
+      <c r="B195" s="349" t="s">
+        <v>449</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>572</v>
@@ -25561,8 +25579,8 @@
     </row>
     <row r="196" spans="1:11">
       <c r="A196" s="146"/>
-      <c r="B196" s="138" t="s">
-        <v>456</v>
+      <c r="B196" s="349" t="s">
+        <v>450</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>572</v>
@@ -25587,8 +25605,8 @@
     </row>
     <row r="197" spans="1:11">
       <c r="A197" s="146"/>
-      <c r="B197" s="138" t="s">
-        <v>457</v>
+      <c r="B197" s="349" t="s">
+        <v>461</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>572</v>
@@ -25613,8 +25631,8 @@
     </row>
     <row r="198" spans="1:11">
       <c r="A198" s="146"/>
-      <c r="B198" s="138" t="s">
-        <v>458</v>
+      <c r="B198" s="349" t="s">
+        <v>456</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>572</v>
@@ -25639,8 +25657,8 @@
     </row>
     <row r="199" spans="1:11">
       <c r="A199" s="146"/>
-      <c r="B199" s="138" t="s">
-        <v>459</v>
+      <c r="B199" s="349" t="s">
+        <v>463</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>572</v>
@@ -25665,8 +25683,8 @@
     </row>
     <row r="200" spans="1:11">
       <c r="A200" s="146"/>
-      <c r="B200" s="138" t="s">
-        <v>460</v>
+      <c r="B200" s="349" t="s">
+        <v>458</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>572</v>
@@ -25691,8 +25709,8 @@
     </row>
     <row r="201" spans="1:11">
       <c r="A201" s="146"/>
-      <c r="B201" s="138" t="s">
-        <v>461</v>
+      <c r="B201" s="349" t="s">
+        <v>459</v>
       </c>
       <c r="C201" s="2">
         <v>0</v>
@@ -25717,8 +25735,8 @@
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="146"/>
-      <c r="B202" s="138" t="s">
-        <v>462</v>
+      <c r="B202" s="349" t="s">
+        <v>460</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -25743,8 +25761,8 @@
     </row>
     <row r="203" spans="1:11" ht="14.25" thickBot="1">
       <c r="A203" s="146"/>
-      <c r="B203" s="138" t="s">
-        <v>463</v>
+      <c r="B203" s="349" t="s">
+        <v>462</v>
       </c>
       <c r="C203" s="2">
         <v>0</v>
@@ -25797,7 +25815,7 @@
     </row>
     <row r="205" spans="1:11">
       <c r="A205" s="146"/>
-      <c r="B205" s="138" t="s">
+      <c r="B205" s="349" t="s">
         <v>464</v>
       </c>
       <c r="C205" s="2">
@@ -25823,7 +25841,7 @@
     </row>
     <row r="206" spans="1:11">
       <c r="A206" s="146"/>
-      <c r="B206" s="138" t="s">
+      <c r="B206" s="349" t="s">
         <v>465</v>
       </c>
       <c r="C206" s="2">
@@ -25849,8 +25867,8 @@
     </row>
     <row r="207" spans="1:11">
       <c r="A207" s="146"/>
-      <c r="B207" s="138" t="s">
-        <v>466</v>
+      <c r="B207" s="349" t="s">
+        <v>468</v>
       </c>
       <c r="C207" s="2">
         <v>12</v>
@@ -25875,8 +25893,8 @@
     </row>
     <row r="208" spans="1:11">
       <c r="A208" s="146"/>
-      <c r="B208" s="138" t="s">
-        <v>467</v>
+      <c r="B208" s="349" t="s">
+        <v>466</v>
       </c>
       <c r="C208" s="2">
         <v>10</v>
@@ -25901,8 +25919,8 @@
     </row>
     <row r="209" spans="1:11">
       <c r="A209" s="146"/>
-      <c r="B209" s="138" t="s">
-        <v>468</v>
+      <c r="B209" s="349" t="s">
+        <v>467</v>
       </c>
       <c r="C209" s="2">
         <v>8</v>
@@ -25927,8 +25945,8 @@
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="146"/>
-      <c r="B210" s="138" t="s">
-        <v>469</v>
+      <c r="B210" s="349" t="s">
+        <v>474</v>
       </c>
       <c r="C210" s="2">
         <v>7</v>
@@ -25953,8 +25971,8 @@
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="146"/>
-      <c r="B211" s="138" t="s">
-        <v>470</v>
+      <c r="B211" s="349" t="s">
+        <v>469</v>
       </c>
       <c r="C211" s="2">
         <v>6</v>
@@ -25979,8 +25997,8 @@
     </row>
     <row r="212" spans="1:11">
       <c r="A212" s="146"/>
-      <c r="B212" s="138" t="s">
-        <v>471</v>
+      <c r="B212" s="349" t="s">
+        <v>472</v>
       </c>
       <c r="C212" s="2">
         <v>6</v>
@@ -26005,8 +26023,8 @@
     </row>
     <row r="213" spans="1:11">
       <c r="A213" s="146"/>
-      <c r="B213" s="138" t="s">
-        <v>472</v>
+      <c r="B213" s="349" t="s">
+        <v>470</v>
       </c>
       <c r="C213" s="2">
         <v>5</v>
@@ -26031,8 +26049,8 @@
     </row>
     <row r="214" spans="1:11">
       <c r="A214" s="146"/>
-      <c r="B214" s="138" t="s">
-        <v>473</v>
+      <c r="B214" s="349" t="s">
+        <v>471</v>
       </c>
       <c r="C214" s="2">
         <v>4</v>
@@ -26057,8 +26075,8 @@
     </row>
     <row r="215" spans="1:11">
       <c r="A215" s="146"/>
-      <c r="B215" s="138" t="s">
-        <v>474</v>
+      <c r="B215" s="349" t="s">
+        <v>473</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>572</v>
@@ -26083,7 +26101,7 @@
     </row>
     <row r="216" spans="1:11">
       <c r="A216" s="146"/>
-      <c r="B216" s="138" t="s">
+      <c r="B216" s="349" t="s">
         <v>475</v>
       </c>
       <c r="C216" s="2" t="s">
@@ -26109,7 +26127,7 @@
     </row>
     <row r="217" spans="1:11">
       <c r="A217" s="146"/>
-      <c r="B217" s="138" t="s">
+      <c r="B217" s="349" t="s">
         <v>476</v>
       </c>
       <c r="C217" s="2" t="s">
@@ -26135,8 +26153,8 @@
     </row>
     <row r="218" spans="1:11">
       <c r="A218" s="146"/>
-      <c r="B218" s="138" t="s">
-        <v>477</v>
+      <c r="B218" s="349" t="s">
+        <v>479</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>572</v>
@@ -26161,8 +26179,8 @@
     </row>
     <row r="219" spans="1:11">
       <c r="A219" s="146"/>
-      <c r="B219" s="138" t="s">
-        <v>478</v>
+      <c r="B219" s="349" t="s">
+        <v>477</v>
       </c>
       <c r="C219" s="2">
         <v>0</v>
@@ -26187,8 +26205,8 @@
     </row>
     <row r="220" spans="1:11" ht="14.25" thickBot="1">
       <c r="A220" s="146"/>
-      <c r="B220" s="138" t="s">
-        <v>479</v>
+      <c r="B220" s="349" t="s">
+        <v>478</v>
       </c>
       <c r="C220" s="2">
         <v>0</v>
@@ -26241,7 +26259,7 @@
     </row>
     <row r="222" spans="1:11">
       <c r="A222" s="146"/>
-      <c r="B222" s="138" t="s">
+      <c r="B222" s="349" t="s">
         <v>140</v>
       </c>
       <c r="C222" s="2">
@@ -26267,7 +26285,7 @@
     </row>
     <row r="223" spans="1:11">
       <c r="A223" s="146"/>
-      <c r="B223" s="138" t="s">
+      <c r="B223" s="349" t="s">
         <v>480</v>
       </c>
       <c r="C223" s="2">
@@ -26293,7 +26311,7 @@
     </row>
     <row r="224" spans="1:11">
       <c r="A224" s="146"/>
-      <c r="B224" s="138" t="s">
+      <c r="B224" s="349" t="s">
         <v>481</v>
       </c>
       <c r="C224" s="2">
@@ -26319,8 +26337,8 @@
     </row>
     <row r="225" spans="1:11">
       <c r="A225" s="146"/>
-      <c r="B225" s="138" t="s">
-        <v>482</v>
+      <c r="B225" s="349" t="s">
+        <v>484</v>
       </c>
       <c r="C225" s="2">
         <v>13</v>
@@ -26345,8 +26363,8 @@
     </row>
     <row r="226" spans="1:11">
       <c r="A226" s="146"/>
-      <c r="B226" s="138" t="s">
-        <v>483</v>
+      <c r="B226" s="349" t="s">
+        <v>482</v>
       </c>
       <c r="C226" s="2">
         <v>12</v>
@@ -26371,8 +26389,8 @@
     </row>
     <row r="227" spans="1:11">
       <c r="A227" s="146"/>
-      <c r="B227" s="138" t="s">
-        <v>484</v>
+      <c r="B227" s="349" t="s">
+        <v>483</v>
       </c>
       <c r="C227" s="2">
         <v>10</v>
@@ -26397,7 +26415,7 @@
     </row>
     <row r="228" spans="1:11">
       <c r="A228" s="146"/>
-      <c r="B228" s="138" t="s">
+      <c r="B228" s="349" t="s">
         <v>485</v>
       </c>
       <c r="C228" s="2">
@@ -26423,8 +26441,8 @@
     </row>
     <row r="229" spans="1:11">
       <c r="A229" s="146"/>
-      <c r="B229" s="138" t="s">
-        <v>486</v>
+      <c r="B229" s="349" t="s">
+        <v>487</v>
       </c>
       <c r="C229" s="2">
         <v>6</v>
@@ -26449,8 +26467,8 @@
     </row>
     <row r="230" spans="1:11">
       <c r="A230" s="146"/>
-      <c r="B230" s="138" t="s">
-        <v>487</v>
+      <c r="B230" s="349" t="s">
+        <v>486</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>572</v>
@@ -26475,8 +26493,8 @@
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="146"/>
-      <c r="B231" s="138" t="s">
-        <v>488</v>
+      <c r="B231" s="349" t="s">
+        <v>490</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>572</v>
@@ -26501,8 +26519,8 @@
     </row>
     <row r="232" spans="1:11">
       <c r="A232" s="146"/>
-      <c r="B232" s="138" t="s">
-        <v>489</v>
+      <c r="B232" s="349" t="s">
+        <v>488</v>
       </c>
       <c r="C232" s="2">
         <v>0</v>
@@ -26527,8 +26545,8 @@
     </row>
     <row r="233" spans="1:11" ht="14.25" thickBot="1">
       <c r="A233" s="146"/>
-      <c r="B233" s="138" t="s">
-        <v>490</v>
+      <c r="B233" s="349" t="s">
+        <v>489</v>
       </c>
       <c r="C233" s="2">
         <v>0</v>
@@ -26581,7 +26599,7 @@
     </row>
     <row r="235" spans="1:11">
       <c r="A235" s="146"/>
-      <c r="B235" s="138" t="s">
+      <c r="B235" s="349" t="s">
         <v>491</v>
       </c>
       <c r="C235" s="2">
@@ -26607,7 +26625,7 @@
     </row>
     <row r="236" spans="1:11">
       <c r="A236" s="146"/>
-      <c r="B236" s="138" t="s">
+      <c r="B236" s="349" t="s">
         <v>492</v>
       </c>
       <c r="C236" s="2">
@@ -26633,7 +26651,7 @@
     </row>
     <row r="237" spans="1:11">
       <c r="A237" s="146"/>
-      <c r="B237" s="138" t="s">
+      <c r="B237" s="349" t="s">
         <v>493</v>
       </c>
       <c r="C237" s="2">
@@ -26659,7 +26677,7 @@
     </row>
     <row r="238" spans="1:11">
       <c r="A238" s="146"/>
-      <c r="B238" s="138" t="s">
+      <c r="B238" s="349" t="s">
         <v>494</v>
       </c>
       <c r="C238" s="2">
@@ -26685,7 +26703,7 @@
     </row>
     <row r="239" spans="1:11">
       <c r="A239" s="146"/>
-      <c r="B239" s="138" t="s">
+      <c r="B239" s="349" t="s">
         <v>495</v>
       </c>
       <c r="C239" s="2">
@@ -26711,7 +26729,7 @@
     </row>
     <row r="240" spans="1:11">
       <c r="A240" s="146"/>
-      <c r="B240" s="138" t="s">
+      <c r="B240" s="349" t="s">
         <v>496</v>
       </c>
       <c r="C240" s="2">
@@ -26737,7 +26755,7 @@
     </row>
     <row r="241" spans="1:11">
       <c r="A241" s="146"/>
-      <c r="B241" s="138" t="s">
+      <c r="B241" s="349" t="s">
         <v>497</v>
       </c>
       <c r="C241" s="2">
@@ -26763,7 +26781,7 @@
     </row>
     <row r="242" spans="1:11">
       <c r="A242" s="146"/>
-      <c r="B242" s="138" t="s">
+      <c r="B242" s="349" t="s">
         <v>498</v>
       </c>
       <c r="C242" s="2" t="s">
@@ -26789,7 +26807,7 @@
     </row>
     <row r="243" spans="1:11">
       <c r="A243" s="146"/>
-      <c r="B243" s="138" t="s">
+      <c r="B243" s="349" t="s">
         <v>499</v>
       </c>
       <c r="C243" s="2" t="s">
@@ -26815,7 +26833,7 @@
     </row>
     <row r="244" spans="1:11" ht="14.25" thickBot="1">
       <c r="A244" s="146"/>
-      <c r="B244" s="138" t="s">
+      <c r="B244" s="349" t="s">
         <v>500</v>
       </c>
       <c r="C244" s="2" t="s">
@@ -26869,7 +26887,7 @@
     </row>
     <row r="246" spans="1:11">
       <c r="A246" s="146"/>
-      <c r="B246" s="138" t="s">
+      <c r="B246" s="349" t="s">
         <v>501</v>
       </c>
       <c r="C246" s="2">
@@ -26895,7 +26913,7 @@
     </row>
     <row r="247" spans="1:11">
       <c r="A247" s="146"/>
-      <c r="B247" s="138" t="s">
+      <c r="B247" s="349" t="s">
         <v>502</v>
       </c>
       <c r="C247" s="2">
@@ -26921,7 +26939,7 @@
     </row>
     <row r="248" spans="1:11">
       <c r="A248" s="146"/>
-      <c r="B248" s="138" t="s">
+      <c r="B248" s="349" t="s">
         <v>503</v>
       </c>
       <c r="C248" s="2">
@@ -26947,7 +26965,7 @@
     </row>
     <row r="249" spans="1:11">
       <c r="A249" s="146"/>
-      <c r="B249" s="138" t="s">
+      <c r="B249" s="349" t="s">
         <v>504</v>
       </c>
       <c r="C249" s="2">
@@ -26973,8 +26991,8 @@
     </row>
     <row r="250" spans="1:11">
       <c r="A250" s="146"/>
-      <c r="B250" s="138" t="s">
-        <v>505</v>
+      <c r="B250" s="349" t="s">
+        <v>506</v>
       </c>
       <c r="C250" s="2">
         <v>12</v>
@@ -26999,8 +27017,8 @@
     </row>
     <row r="251" spans="1:11">
       <c r="A251" s="146"/>
-      <c r="B251" s="138" t="s">
-        <v>506</v>
+      <c r="B251" s="349" t="s">
+        <v>505</v>
       </c>
       <c r="C251" s="2">
         <v>12</v>
@@ -27025,7 +27043,7 @@
     </row>
     <row r="252" spans="1:11">
       <c r="A252" s="146"/>
-      <c r="B252" s="138" t="s">
+      <c r="B252" s="349" t="s">
         <v>507</v>
       </c>
       <c r="C252" s="2">
@@ -27051,7 +27069,7 @@
     </row>
     <row r="253" spans="1:11">
       <c r="A253" s="146"/>
-      <c r="B253" s="138" t="s">
+      <c r="B253" s="349" t="s">
         <v>508</v>
       </c>
       <c r="C253" s="2">
@@ -27077,7 +27095,7 @@
     </row>
     <row r="254" spans="1:11">
       <c r="A254" s="146"/>
-      <c r="B254" s="138" t="s">
+      <c r="B254" s="349" t="s">
         <v>509</v>
       </c>
       <c r="C254" s="2">
@@ -27103,8 +27121,8 @@
     </row>
     <row r="255" spans="1:11">
       <c r="A255" s="146"/>
-      <c r="B255" s="138" t="s">
-        <v>510</v>
+      <c r="B255" s="349" t="s">
+        <v>515</v>
       </c>
       <c r="C255" s="2">
         <v>8</v>
@@ -27129,8 +27147,8 @@
     </row>
     <row r="256" spans="1:11">
       <c r="A256" s="146"/>
-      <c r="B256" s="138" t="s">
-        <v>511</v>
+      <c r="B256" s="349" t="s">
+        <v>510</v>
       </c>
       <c r="C256" s="2">
         <v>5</v>
@@ -27155,8 +27173,8 @@
     </row>
     <row r="257" spans="1:11">
       <c r="A257" s="146"/>
-      <c r="B257" s="138" t="s">
-        <v>512</v>
+      <c r="B257" s="349" t="s">
+        <v>513</v>
       </c>
       <c r="C257" s="2">
         <v>4</v>
@@ -27181,8 +27199,8 @@
     </row>
     <row r="258" spans="1:11">
       <c r="A258" s="146"/>
-      <c r="B258" s="138" t="s">
-        <v>513</v>
+      <c r="B258" s="349" t="s">
+        <v>511</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>572</v>
@@ -27207,8 +27225,8 @@
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="146"/>
-      <c r="B259" s="138" t="s">
-        <v>514</v>
+      <c r="B259" s="349" t="s">
+        <v>512</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>572</v>
@@ -27233,8 +27251,8 @@
     </row>
     <row r="260" spans="1:11" ht="14.25" thickBot="1">
       <c r="A260" s="146"/>
-      <c r="B260" s="138" t="s">
-        <v>515</v>
+      <c r="B260" s="349" t="s">
+        <v>514</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>572</v>
@@ -27287,7 +27305,7 @@
     </row>
     <row r="262" spans="1:11">
       <c r="A262" s="146"/>
-      <c r="B262" s="138" t="s">
+      <c r="B262" s="349" t="s">
         <v>516</v>
       </c>
       <c r="C262" s="2">
@@ -27313,8 +27331,8 @@
     </row>
     <row r="263" spans="1:11">
       <c r="A263" s="146"/>
-      <c r="B263" s="138" t="s">
-        <v>517</v>
+      <c r="B263" s="349" t="s">
+        <v>519</v>
       </c>
       <c r="C263" s="2">
         <v>54</v>
@@ -27339,7 +27357,7 @@
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="146"/>
-      <c r="B264" s="138" t="s">
+      <c r="B264" s="349" t="s">
         <v>518</v>
       </c>
       <c r="C264" s="2">
@@ -27365,8 +27383,8 @@
     </row>
     <row r="265" spans="1:11">
       <c r="A265" s="146"/>
-      <c r="B265" s="138" t="s">
-        <v>519</v>
+      <c r="B265" s="349" t="s">
+        <v>517</v>
       </c>
       <c r="C265" s="2">
         <v>33</v>
@@ -27391,8 +27409,8 @@
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="146"/>
-      <c r="B266" s="138" t="s">
-        <v>520</v>
+      <c r="B266" s="349" t="s">
+        <v>523</v>
       </c>
       <c r="C266" s="2">
         <v>18</v>
@@ -27417,8 +27435,8 @@
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="146"/>
-      <c r="B267" s="138" t="s">
-        <v>521</v>
+      <c r="B267" s="349" t="s">
+        <v>520</v>
       </c>
       <c r="C267" s="2">
         <v>18</v>
@@ -27443,7 +27461,7 @@
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="146"/>
-      <c r="B268" s="138" t="s">
+      <c r="B268" s="349" t="s">
         <v>522</v>
       </c>
       <c r="C268" s="2">
@@ -27469,8 +27487,8 @@
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="146"/>
-      <c r="B269" s="138" t="s">
-        <v>523</v>
+      <c r="B269" s="349" t="s">
+        <v>525</v>
       </c>
       <c r="C269" s="2">
         <v>15</v>
@@ -27495,8 +27513,8 @@
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="146"/>
-      <c r="B270" s="138" t="s">
-        <v>524</v>
+      <c r="B270" s="349" t="s">
+        <v>521</v>
       </c>
       <c r="C270" s="2">
         <v>13</v>
@@ -27521,8 +27539,8 @@
     </row>
     <row r="271" spans="1:11" ht="14.25" thickBot="1">
       <c r="A271" s="146"/>
-      <c r="B271" s="138" t="s">
-        <v>525</v>
+      <c r="B271" s="349" t="s">
+        <v>524</v>
       </c>
       <c r="C271" s="2">
         <v>5</v>
@@ -27575,7 +27593,7 @@
     </row>
     <row r="273" spans="1:11">
       <c r="A273" s="146"/>
-      <c r="B273" s="138" t="s">
+      <c r="B273" s="349" t="s">
         <v>526</v>
       </c>
       <c r="C273" s="2">
@@ -27601,7 +27619,7 @@
     </row>
     <row r="274" spans="1:11">
       <c r="A274" s="146"/>
-      <c r="B274" s="138" t="s">
+      <c r="B274" s="349" t="s">
         <v>527</v>
       </c>
       <c r="C274" s="2">
@@ -27627,8 +27645,8 @@
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="146"/>
-      <c r="B275" s="138" t="s">
-        <v>528</v>
+      <c r="B275" s="349" t="s">
+        <v>531</v>
       </c>
       <c r="C275" s="2">
         <v>28</v>
@@ -27653,8 +27671,8 @@
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="146"/>
-      <c r="B276" s="138" t="s">
-        <v>529</v>
+      <c r="B276" s="349" t="s">
+        <v>528</v>
       </c>
       <c r="C276" s="2">
         <v>27</v>
@@ -27679,8 +27697,8 @@
     </row>
     <row r="277" spans="1:11">
       <c r="A277" s="146"/>
-      <c r="B277" s="138" t="s">
-        <v>530</v>
+      <c r="B277" s="349" t="s">
+        <v>529</v>
       </c>
       <c r="C277" s="2">
         <v>18</v>
@@ -27705,8 +27723,8 @@
     </row>
     <row r="278" spans="1:11">
       <c r="A278" s="146"/>
-      <c r="B278" s="138" t="s">
-        <v>531</v>
+      <c r="B278" s="349" t="s">
+        <v>530</v>
       </c>
       <c r="C278" s="2">
         <v>17</v>
@@ -27731,7 +27749,7 @@
     </row>
     <row r="279" spans="1:11" ht="14.25" thickBot="1">
       <c r="A279" s="146"/>
-      <c r="B279" s="138" t="s">
+      <c r="B279" s="349" t="s">
         <v>532</v>
       </c>
       <c r="C279" s="2">
@@ -27785,7 +27803,7 @@
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="146"/>
-      <c r="B281" s="138" t="s">
+      <c r="B281" s="349" t="s">
         <v>533</v>
       </c>
       <c r="C281" s="2">
@@ -27811,7 +27829,7 @@
     </row>
     <row r="282" spans="1:11">
       <c r="A282" s="146"/>
-      <c r="B282" s="138" t="s">
+      <c r="B282" s="349" t="s">
         <v>534</v>
       </c>
       <c r="C282" s="2">
@@ -27837,7 +27855,7 @@
     </row>
     <row r="283" spans="1:11">
       <c r="A283" s="146"/>
-      <c r="B283" s="138" t="s">
+      <c r="B283" s="349" t="s">
         <v>535</v>
       </c>
       <c r="C283" s="2">
@@ -27863,7 +27881,7 @@
     </row>
     <row r="284" spans="1:11">
       <c r="A284" s="146"/>
-      <c r="B284" s="138" t="s">
+      <c r="B284" s="349" t="s">
         <v>536</v>
       </c>
       <c r="C284" s="2">
@@ -27889,8 +27907,8 @@
     </row>
     <row r="285" spans="1:11">
       <c r="A285" s="146"/>
-      <c r="B285" s="138" t="s">
-        <v>537</v>
+      <c r="B285" s="349" t="s">
+        <v>538</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>572</v>
@@ -27915,8 +27933,8 @@
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="146"/>
-      <c r="B286" s="138" t="s">
-        <v>538</v>
+      <c r="B286" s="349" t="s">
+        <v>537</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>572</v>
@@ -27941,7 +27959,7 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287" s="146"/>
-      <c r="B287" s="138" t="s">
+      <c r="B287" s="349" t="s">
         <v>539</v>
       </c>
       <c r="C287" s="2">
@@ -27967,7 +27985,7 @@
     </row>
     <row r="288" spans="1:11" ht="14.25" thickBot="1">
       <c r="A288" s="146"/>
-      <c r="B288" s="138" t="s">
+      <c r="B288" s="349" t="s">
         <v>540</v>
       </c>
       <c r="C288" s="2">
@@ -28021,7 +28039,7 @@
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="146"/>
-      <c r="B290" s="138" t="s">
+      <c r="B290" s="349" t="s">
         <v>541</v>
       </c>
       <c r="C290" s="2">
@@ -28047,7 +28065,7 @@
     </row>
     <row r="291" spans="1:11">
       <c r="A291" s="146"/>
-      <c r="B291" s="138" t="s">
+      <c r="B291" s="349" t="s">
         <v>542</v>
       </c>
       <c r="C291" s="2">
@@ -28073,7 +28091,7 @@
     </row>
     <row r="292" spans="1:11">
       <c r="A292" s="146"/>
-      <c r="B292" s="138" t="s">
+      <c r="B292" s="349" t="s">
         <v>543</v>
       </c>
       <c r="C292" s="2">
@@ -28096,8 +28114,8 @@
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="146"/>
-      <c r="B293" s="138" t="s">
-        <v>544</v>
+      <c r="B293" s="349" t="s">
+        <v>549</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>572</v>
@@ -28122,8 +28140,8 @@
     </row>
     <row r="294" spans="1:11">
       <c r="A294" s="146"/>
-      <c r="B294" s="138" t="s">
-        <v>545</v>
+      <c r="B294" s="349" t="s">
+        <v>544</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>572</v>
@@ -28148,8 +28166,8 @@
     </row>
     <row r="295" spans="1:11">
       <c r="A295" s="146"/>
-      <c r="B295" s="138" t="s">
-        <v>546</v>
+      <c r="B295" s="349" t="s">
+        <v>545</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>572</v>
@@ -28174,8 +28192,8 @@
     </row>
     <row r="296" spans="1:11">
       <c r="A296" s="146"/>
-      <c r="B296" s="138" t="s">
-        <v>547</v>
+      <c r="B296" s="349" t="s">
+        <v>546</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>572</v>
@@ -28200,8 +28218,8 @@
     </row>
     <row r="297" spans="1:11">
       <c r="A297" s="146"/>
-      <c r="B297" s="138" t="s">
-        <v>548</v>
+      <c r="B297" s="349" t="s">
+        <v>547</v>
       </c>
       <c r="C297" s="2">
         <v>0</v>
@@ -28226,8 +28244,8 @@
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="146"/>
-      <c r="B298" s="138" t="s">
-        <v>549</v>
+      <c r="B298" s="349" t="s">
+        <v>548</v>
       </c>
       <c r="C298" s="2">
         <v>0</v>
@@ -28252,7 +28270,7 @@
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="146"/>
-      <c r="B299" s="138" t="s">
+      <c r="B299" s="349" t="s">
         <v>550</v>
       </c>
       <c r="C299" s="2">
@@ -28278,7 +28296,7 @@
     </row>
     <row r="300" spans="1:11">
       <c r="A300" s="146"/>
-      <c r="B300" s="138" t="s">
+      <c r="B300" s="349" t="s">
         <v>551</v>
       </c>
       <c r="C300" s="2">
@@ -28304,7 +28322,7 @@
     </row>
     <row r="301" spans="1:11">
       <c r="A301" s="146"/>
-      <c r="B301" s="138" t="s">
+      <c r="B301" s="349" t="s">
         <v>552</v>
       </c>
       <c r="C301" s="2">
@@ -28330,7 +28348,7 @@
     </row>
     <row r="302" spans="1:11">
       <c r="A302" s="146"/>
-      <c r="B302" s="138" t="s">
+      <c r="B302" s="349" t="s">
         <v>553</v>
       </c>
       <c r="C302" s="2">
@@ -28356,7 +28374,7 @@
     </row>
     <row r="303" spans="1:11">
       <c r="A303" s="146"/>
-      <c r="B303" s="138" t="s">
+      <c r="B303" s="349" t="s">
         <v>554</v>
       </c>
       <c r="C303" s="2">
@@ -28382,7 +28400,7 @@
     </row>
     <row r="304" spans="1:11" ht="14.25" thickBot="1">
       <c r="A304" s="146"/>
-      <c r="B304" s="138" t="s">
+      <c r="B304" s="349" t="s">
         <v>555</v>
       </c>
       <c r="C304" s="2">
@@ -28437,7 +28455,7 @@
     <row r="306" spans="1:11">
       <c r="A306" s="146"/>
       <c r="B306" s="138" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C306" s="2">
         <v>31</v>
@@ -28463,7 +28481,7 @@
     <row r="307" spans="1:11">
       <c r="A307" s="146"/>
       <c r="B307" s="138" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C307" s="2">
         <v>30</v>
@@ -28489,7 +28507,7 @@
     <row r="308" spans="1:11">
       <c r="A308" s="146"/>
       <c r="B308" s="138" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C308" s="2">
         <v>24</v>
@@ -28515,7 +28533,7 @@
     <row r="309" spans="1:11">
       <c r="A309" s="146"/>
       <c r="B309" s="138" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C309" s="2">
         <v>23</v>
@@ -28567,7 +28585,7 @@
     <row r="311" spans="1:11">
       <c r="A311" s="146"/>
       <c r="B311" s="138" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C311" s="2">
         <v>4</v>
@@ -28593,7 +28611,7 @@
     <row r="312" spans="1:11">
       <c r="A312" s="146"/>
       <c r="B312" s="138" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="C312" s="2">
         <v>4</v>
@@ -28619,7 +28637,7 @@
     <row r="313" spans="1:11">
       <c r="A313" s="146"/>
       <c r="B313" s="138" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>572</v>
@@ -28645,7 +28663,7 @@
     <row r="314" spans="1:11">
       <c r="A314" s="146"/>
       <c r="B314" s="138" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>572</v>
@@ -28671,7 +28689,7 @@
     <row r="315" spans="1:11">
       <c r="A315" s="146"/>
       <c r="B315" s="138" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>572</v>
@@ -35331,16 +35349,16 @@
       <c r="F34" s="97"/>
     </row>
     <row r="35" spans="2:6" ht="27.75" thickTop="1">
-      <c r="B35" s="302" t="s">
+      <c r="B35" s="283" t="s">
         <v>55</v>
       </c>
       <c r="C35" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="303" t="s">
+      <c r="D35" s="285" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="303" t="s">
+      <c r="E35" s="285" t="s">
         <v>58</v>
       </c>
       <c r="F35" s="13" t="s">
@@ -35348,45 +35366,45 @@
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="297"/>
+      <c r="B36" s="284"/>
       <c r="C36" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="294"/>
-      <c r="E36" s="294"/>
+      <c r="D36" s="286"/>
+      <c r="E36" s="286"/>
       <c r="F36" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="297"/>
+      <c r="B37" s="284"/>
       <c r="C37" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="294"/>
-      <c r="E37" s="294"/>
+      <c r="D37" s="286"/>
+      <c r="E37" s="286"/>
       <c r="F37" s="14" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="38" spans="2:6">
-      <c r="B38" s="297"/>
+      <c r="B38" s="284"/>
       <c r="C38" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="D38" s="294"/>
-      <c r="E38" s="294"/>
+      <c r="D38" s="286"/>
+      <c r="E38" s="286"/>
       <c r="F38" s="14" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="39" spans="2:6" ht="27">
-      <c r="B39" s="297"/>
+      <c r="B39" s="284"/>
       <c r="C39" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="D39" s="294"/>
-      <c r="E39" s="294"/>
+      <c r="D39" s="286"/>
+      <c r="E39" s="286"/>
       <c r="F39" s="14" t="s">
         <v>64</v>
       </c>
@@ -35416,22 +35434,22 @@
       <c r="F41" s="75"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="290"/>
-      <c r="C42" s="290"/>
-      <c r="D42" s="294" t="s">
+      <c r="B42" s="287"/>
+      <c r="C42" s="287"/>
+      <c r="D42" s="286" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="294" t="s">
+      <c r="E42" s="286" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="294"/>
+      <c r="F42" s="286"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="290"/>
-      <c r="C43" s="290"/>
-      <c r="D43" s="294"/>
-      <c r="E43" s="294"/>
-      <c r="F43" s="294"/>
+      <c r="B43" s="287"/>
+      <c r="C43" s="287"/>
+      <c r="D43" s="286"/>
+      <c r="E43" s="286"/>
+      <c r="F43" s="286"/>
     </row>
     <row r="44" spans="2:6" ht="14.25" thickBot="1">
       <c r="B44" s="97"/>
@@ -35445,16 +35463,16 @@
       <c r="F44" s="98"/>
     </row>
     <row r="45" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B45" s="296" t="s">
+      <c r="B45" s="289" t="s">
         <v>0</v>
       </c>
       <c r="C45" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="298" t="s">
+      <c r="D45" s="290" t="s">
         <v>74</v>
       </c>
-      <c r="E45" s="298" t="s">
+      <c r="E45" s="290" t="s">
         <v>75</v>
       </c>
       <c r="F45" s="74" t="s">
@@ -35462,30 +35480,30 @@
       </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="297"/>
+      <c r="B46" s="284"/>
       <c r="C46" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="290"/>
-      <c r="E46" s="290"/>
+      <c r="D46" s="287"/>
+      <c r="E46" s="287"/>
       <c r="F46" s="74"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="297"/>
+      <c r="B47" s="284"/>
       <c r="C47" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="290"/>
-      <c r="E47" s="290"/>
+      <c r="D47" s="287"/>
+      <c r="E47" s="287"/>
       <c r="F47" s="74"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="297"/>
+      <c r="B48" s="284"/>
       <c r="C48" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="D48" s="290"/>
-      <c r="E48" s="290"/>
+      <c r="D48" s="287"/>
+      <c r="E48" s="287"/>
       <c r="F48" s="74"/>
     </row>
     <row r="49" spans="2:6" ht="27">
@@ -35537,46 +35555,46 @@
       <c r="F52" s="97"/>
     </row>
     <row r="53" spans="2:6" ht="14.25" thickTop="1">
-      <c r="B53" s="299" t="s">
+      <c r="B53" s="291" t="s">
         <v>85</v>
       </c>
       <c r="C53" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="300" t="s">
+      <c r="D53" s="293" t="s">
         <v>86</v>
       </c>
-      <c r="E53" s="300" t="s">
+      <c r="E53" s="293" t="s">
         <v>85</v>
       </c>
-      <c r="F53" s="301"/>
+      <c r="F53" s="294"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="289"/>
+      <c r="B54" s="292"/>
       <c r="C54" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="294"/>
-      <c r="E54" s="294"/>
-      <c r="F54" s="295"/>
+      <c r="D54" s="286"/>
+      <c r="E54" s="286"/>
+      <c r="F54" s="288"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="289"/>
+      <c r="B55" s="292"/>
       <c r="C55" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="294"/>
-      <c r="E55" s="294"/>
-      <c r="F55" s="295"/>
+      <c r="D55" s="286"/>
+      <c r="E55" s="286"/>
+      <c r="F55" s="288"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="289"/>
+      <c r="B56" s="292"/>
       <c r="C56" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="D56" s="294"/>
-      <c r="E56" s="294"/>
-      <c r="F56" s="295"/>
+      <c r="D56" s="286"/>
+      <c r="E56" s="286"/>
+      <c r="F56" s="288"/>
     </row>
     <row r="57" spans="2:6" ht="27">
       <c r="B57" s="73"/>
@@ -35592,22 +35610,22 @@
       <c r="F57" s="72"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="289"/>
-      <c r="C58" s="290"/>
-      <c r="D58" s="294" t="s">
+      <c r="B58" s="292"/>
+      <c r="C58" s="287"/>
+      <c r="D58" s="286" t="s">
         <v>89</v>
       </c>
-      <c r="E58" s="294" t="s">
+      <c r="E58" s="286" t="s">
         <v>90</v>
       </c>
-      <c r="F58" s="295"/>
+      <c r="F58" s="288"/>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="289"/>
-      <c r="C59" s="290"/>
-      <c r="D59" s="294"/>
-      <c r="E59" s="294"/>
-      <c r="F59" s="295"/>
+      <c r="B59" s="292"/>
+      <c r="C59" s="287"/>
+      <c r="D59" s="286"/>
+      <c r="E59" s="286"/>
+      <c r="F59" s="288"/>
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="73"/>
@@ -35751,10 +35769,10 @@
       <c r="E74" s="154"/>
     </row>
     <row r="75" spans="2:6" s="82" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="B75" s="288" t="s">
+      <c r="B75" s="300" t="s">
         <v>253</v>
       </c>
-      <c r="C75" s="288"/>
+      <c r="C75" s="300"/>
       <c r="D75" s="158"/>
       <c r="E75" s="77"/>
     </row>
@@ -35818,7 +35836,7 @@
       <c r="B84" s="175" t="s">
         <v>157</v>
       </c>
-      <c r="C84" s="291" t="s">
+      <c r="C84" s="301" t="s">
         <v>232</v>
       </c>
       <c r="D84" s="159"/>
@@ -35827,14 +35845,14 @@
       <c r="B85" s="175" t="s">
         <v>176</v>
       </c>
-      <c r="C85" s="292"/>
+      <c r="C85" s="302"/>
       <c r="D85" s="159"/>
     </row>
     <row r="86" spans="2:5" ht="32.25" customHeight="1" thickBot="1">
       <c r="B86" s="176" t="s">
         <v>177</v>
       </c>
-      <c r="C86" s="293"/>
+      <c r="C86" s="303"/>
       <c r="D86" s="160"/>
     </row>
     <row r="87" spans="2:5" ht="14.25" thickTop="1"/>
@@ -35855,7 +35873,7 @@
       </c>
     </row>
     <row r="91" spans="2:5" ht="27">
-      <c r="B91" s="283" t="s">
+      <c r="B91" s="295" t="s">
         <v>241</v>
       </c>
       <c r="C91" s="174" t="s">
@@ -35863,14 +35881,14 @@
       </c>
     </row>
     <row r="92" spans="2:5" ht="27" customHeight="1">
-      <c r="B92" s="284"/>
-      <c r="C92" s="286" t="s">
+      <c r="B92" s="296"/>
+      <c r="C92" s="298" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="93" spans="2:5" ht="14.25" thickBot="1">
-      <c r="B93" s="285"/>
-      <c r="C93" s="287"/>
+      <c r="B93" s="297"/>
+      <c r="C93" s="299"/>
     </row>
     <row r="94" spans="2:5" ht="14.25" thickTop="1">
       <c r="B94" s="82"/>
@@ -35878,13 +35896,12 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="E35:E39"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C84:C86"/>
     <mergeCell ref="D58:D59"/>
     <mergeCell ref="E58:E59"/>
     <mergeCell ref="F58:F59"/>
@@ -35896,12 +35913,13 @@
     <mergeCell ref="D53:D56"/>
     <mergeCell ref="E53:E56"/>
     <mergeCell ref="F53:F56"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="E35:E39"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B5" location="Definitioner!B12" display="Dödsorsak covid-19"/>
@@ -51511,16 +51529,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="M6:N6"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -52278,15 +52296,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Publiceringsdatum xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">2020-04-28T22:00:00+00:00</Publiceringsdatum>
@@ -52322,6 +52331,15 @@
     <Status_x0020_p_x00e5__x0020_publikation xmlns="dd3acd59-a8d8-42b1-950d-eec6c247243c">Publicerad</Status_x0020_p_x00e5__x0020_publikation>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -52658,26 +52676,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4CF34A-7793-424A-BF7F-3DB732CF3454}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8C92573-D875-4871-BB97-75789C903393}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="dd3acd59-a8d8-42b1-950d-eec6c247243c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="343f6c91-b5b3-4dff-89ad-5fc55ccc8930"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
